--- a/biology/Zoologie/Coati_de_l'île_de_Cozumel/Coati_de_l'île_de_Cozumel.xlsx
+++ b/biology/Zoologie/Coati_de_l'île_de_Cozumel/Coati_de_l'île_de_Cozumel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Coati_de_l%27%C3%AEle_de_Cozumel</t>
+          <t>Coati_de_l'île_de_Cozumel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nasua nelsoni
 Le Coati de l'île de Cozumel ou Coati de l'île Cozumel (Nasua nelsoni) est un mammifère américain de la famille des Procyonidae, famille qui comprend aussi notamment les ratons laveurs.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Coati_de_l%27%C3%AEle_de_Cozumel</t>
+          <t>Coati_de_l'île_de_Cozumel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est endémique de l'ile de Cozumel au Quintana Roo au Mexique.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Coati_de_l%27%C3%AEle_de_Cozumel</t>
+          <t>Coati_de_l'île_de_Cozumel</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Très proche de Nasua narica il est considéré par certains comme une sous-espèce Nasua narica nelsoni Merriam, 1901[1]) et par d'autre comme une espèce à part entière.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Très proche de Nasua narica il est considéré par certains comme une sous-espèce Nasua narica nelsoni Merriam, 1901) et par d'autre comme une espèce à part entière.
 Son statut de protection est le même que celui de Nasua narica.
 </t>
         </is>
